--- a/datamining/final_data/tfidf1965_nltk.xlsx
+++ b/datamining/final_data/tfidf1965_nltk.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:HN50"/>
+  <dimension ref="A1:GI50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,1099 +447,944 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>a</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>and</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
           <t>aspirations</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>comparable</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>creatively</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>dreams</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>gifted</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>group</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>groups</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>high-school</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>of</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>seniors</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>unselected</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>abstract</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>project</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>self-discovery</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>child</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>counselor</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>creative</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>the</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>5th-grade</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>childrens</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>creative-thinking</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>note</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>on</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>vocational</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>world</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>gifted-child</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>i</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>perhaps</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>was</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>being</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>successful</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>teacher</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>academically</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>an</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>attitudes</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>evaluation</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>honors</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>in</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>program</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>students</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>suburban</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>towards</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>career</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>college</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>determinants</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>for</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>psychological</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>gift</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>gifted-children</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>horses</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>are</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>educating</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>girls</t>
         </is>
       </c>
-      <c r="BI1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>worth</t>
         </is>
       </c>
-      <c r="BJ1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>book</t>
         </is>
       </c>
-      <c r="BK1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>review</t>
         </is>
       </c>
-      <c r="BL1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>highly</t>
         </is>
       </c>
-      <c r="BM1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>mental-health</t>
         </is>
       </c>
-      <c r="BN1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>problems</t>
         </is>
       </c>
-      <c r="BO1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>chiefly</t>
         </is>
       </c>
-      <c r="BP1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>chinese</t>
         </is>
       </c>
-      <c r="BQ1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>culturally</t>
         </is>
       </c>
-      <c r="BR1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>deprived</t>
         </is>
       </c>
-      <c r="BS1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>guidance</t>
         </is>
       </c>
-      <c r="BT1" s="1" t="inlineStr">
+      <c r="BG1" s="1" t="inlineStr">
         <is>
           <t>inspiring</t>
         </is>
       </c>
-      <c r="BU1" s="1" t="inlineStr">
+      <c r="BH1" s="1" t="inlineStr">
         <is>
           <t>occupational</t>
         </is>
       </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>as</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
+      <c r="BI1" s="1" t="inlineStr">
         <is>
           <t>curricular</t>
         </is>
       </c>
-      <c r="BX1" s="1" t="inlineStr">
+      <c r="BJ1" s="1" t="inlineStr">
         <is>
           <t>development</t>
         </is>
       </c>
-      <c r="BY1" s="1" t="inlineStr">
+      <c r="BK1" s="1" t="inlineStr">
         <is>
           <t>human-behavior</t>
         </is>
       </c>
-      <c r="BZ1" s="1" t="inlineStr">
+      <c r="BL1" s="1" t="inlineStr">
         <is>
           <t>personal</t>
         </is>
       </c>
-      <c r="CA1" s="1" t="inlineStr">
+      <c r="BM1" s="1" t="inlineStr">
         <is>
           <t>substance</t>
         </is>
       </c>
-      <c r="CB1" s="1" t="inlineStr">
+      <c r="BN1" s="1" t="inlineStr">
         <is>
           <t>counselors</t>
         </is>
       </c>
-      <c r="CC1" s="1" t="inlineStr">
+      <c r="BO1" s="1" t="inlineStr">
         <is>
           <t>role</t>
         </is>
       </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>with</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
+      <c r="BP1" s="1" t="inlineStr">
         <is>
           <t>working</t>
         </is>
       </c>
-      <c r="CF1" s="1" t="inlineStr">
+      <c r="BQ1" s="1" t="inlineStr">
         <is>
           <t>carpet</t>
         </is>
       </c>
-      <c r="CG1" s="1" t="inlineStr">
+      <c r="BR1" s="1" t="inlineStr">
         <is>
           <t>magic</t>
         </is>
       </c>
-      <c r="CH1" s="1" t="inlineStr">
+      <c r="BS1" s="1" t="inlineStr">
         <is>
           <t>page</t>
         </is>
       </c>
-      <c r="CI1" s="1" t="inlineStr">
+      <c r="BT1" s="1" t="inlineStr">
         <is>
           <t>parents</t>
         </is>
       </c>
-      <c r="CJ1" s="1" t="inlineStr">
+      <c r="BU1" s="1" t="inlineStr">
         <is>
           <t>children</t>
         </is>
       </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>your</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>about</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
+      <c r="BV1" s="1" t="inlineStr">
         <is>
           <t>creativity</t>
         </is>
       </c>
-      <c r="CN1" s="1" t="inlineStr">
+      <c r="BW1" s="1" t="inlineStr">
         <is>
           <t>pre-school</t>
         </is>
       </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>what</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
+      <c r="BX1" s="1" t="inlineStr">
         <is>
           <t>examiner-child</t>
         </is>
       </c>
-      <c r="CQ1" s="1" t="inlineStr">
+      <c r="BY1" s="1" t="inlineStr">
         <is>
           <t>giftedness</t>
         </is>
       </c>
-      <c r="CR1" s="1" t="inlineStr">
+      <c r="BZ1" s="1" t="inlineStr">
         <is>
           <t>influence</t>
         </is>
       </c>
-      <c r="CS1" s="1" t="inlineStr">
+      <c r="CA1" s="1" t="inlineStr">
         <is>
           <t>interaction</t>
         </is>
       </c>
-      <c r="CT1" s="1" t="inlineStr">
+      <c r="CB1" s="1" t="inlineStr">
         <is>
           <t>measurement</t>
         </is>
       </c>
-      <c r="CU1" s="1" t="inlineStr">
+      <c r="CC1" s="1" t="inlineStr">
         <is>
           <t>hypnosis</t>
         </is>
       </c>
-      <c r="CV1" s="1" t="inlineStr">
+      <c r="CD1" s="1" t="inlineStr">
         <is>
           <t>able</t>
         </is>
       </c>
-      <c r="CW1" s="1" t="inlineStr">
+      <c r="CE1" s="1" t="inlineStr">
         <is>
           <t>california</t>
         </is>
       </c>
-      <c r="CX1" s="1" t="inlineStr">
+      <c r="CF1" s="1" t="inlineStr">
         <is>
           <t>criterion</t>
         </is>
       </c>
-      <c r="CY1" s="1" t="inlineStr">
+      <c r="CG1" s="1" t="inlineStr">
         <is>
           <t>efficacy</t>
         </is>
       </c>
-      <c r="CZ1" s="1" t="inlineStr">
+      <c r="CH1" s="1" t="inlineStr">
         <is>
           <t>function</t>
         </is>
       </c>
-      <c r="DA1" s="1" t="inlineStr">
+      <c r="CI1" s="1" t="inlineStr">
         <is>
           <t>programs</t>
         </is>
       </c>
-      <c r="DB1" s="1" t="inlineStr">
+      <c r="CJ1" s="1" t="inlineStr">
         <is>
           <t>scorecard</t>
         </is>
       </c>
-      <c r="DC1" s="1" t="inlineStr">
+      <c r="CK1" s="1" t="inlineStr">
         <is>
           <t>structure</t>
         </is>
       </c>
-      <c r="DD1" s="1" t="inlineStr">
+      <c r="CL1" s="1" t="inlineStr">
         <is>
           <t>youth</t>
         </is>
       </c>
-      <c r="DE1" s="1" t="inlineStr">
+      <c r="CM1" s="1" t="inlineStr">
         <is>
           <t>bel</t>
         </is>
       </c>
-      <c r="DF1" s="1" t="inlineStr">
+      <c r="CN1" s="1" t="inlineStr">
         <is>
           <t>kaufman</t>
         </is>
       </c>
-      <c r="DG1" s="1" t="inlineStr">
+      <c r="CO1" s="1" t="inlineStr">
         <is>
           <t>writer</t>
         </is>
       </c>
-      <c r="DH1" s="1" t="inlineStr">
+      <c r="CP1" s="1" t="inlineStr">
         <is>
           <t>educators</t>
         </is>
       </c>
-      <c r="DI1" s="1" t="inlineStr">
+      <c r="CQ1" s="1" t="inlineStr">
         <is>
           <t>gcq</t>
         </is>
       </c>
-      <c r="DJ1" s="1" t="inlineStr">
+      <c r="CR1" s="1" t="inlineStr">
         <is>
           <t>leads</t>
         </is>
       </c>
-      <c r="DK1" s="1" t="inlineStr">
+      <c r="CS1" s="1" t="inlineStr">
         <is>
           <t>new</t>
         </is>
       </c>
-      <c r="DL1" s="1" t="inlineStr">
+      <c r="CT1" s="1" t="inlineStr">
         <is>
           <t>small</t>
         </is>
       </c>
-      <c r="DM1" s="1" t="inlineStr">
-        <is>
-          <t>to</t>
-        </is>
-      </c>
-      <c r="DN1" s="1" t="inlineStr">
+      <c r="CU1" s="1" t="inlineStr">
         <is>
           <t>use</t>
         </is>
       </c>
-      <c r="DO1" s="1" t="inlineStr">
+      <c r="CV1" s="1" t="inlineStr">
         <is>
           <t>education</t>
         </is>
       </c>
-      <c r="DP1" s="1" t="inlineStr">
+      <c r="CW1" s="1" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="DQ1" s="1" t="inlineStr">
+      <c r="CX1" s="1" t="inlineStr">
         <is>
           <t>intellectually</t>
         </is>
       </c>
-      <c r="DR1" s="1" t="inlineStr">
+      <c r="CY1" s="1" t="inlineStr">
         <is>
           <t>mj</t>
         </is>
       </c>
-      <c r="DS1" s="1" t="inlineStr">
+      <c r="CZ1" s="1" t="inlineStr">
         <is>
           <t>different</t>
         </is>
       </c>
-      <c r="DT1" s="1" t="inlineStr">
+      <c r="DA1" s="1" t="inlineStr">
         <is>
           <t>editorial</t>
         </is>
       </c>
-      <c r="DU1" s="1" t="inlineStr">
+      <c r="DB1" s="1" t="inlineStr">
         <is>
           <t>even</t>
         </is>
       </c>
-      <c r="DV1" s="1" t="inlineStr">
+      <c r="DC1" s="1" t="inlineStr">
         <is>
           <t>inanimate</t>
         </is>
       </c>
-      <c r="DW1" s="1" t="inlineStr">
+      <c r="DD1" s="1" t="inlineStr">
         <is>
           <t>objects</t>
         </is>
       </c>
-      <c r="DX1" s="1" t="inlineStr">
+      <c r="DE1" s="1" t="inlineStr">
         <is>
           <t>receive</t>
         </is>
       </c>
-      <c r="DY1" s="1" t="inlineStr">
+      <c r="DF1" s="1" t="inlineStr">
         <is>
           <t>treatment</t>
         </is>
       </c>
-      <c r="DZ1" s="1" t="inlineStr">
-        <is>
-          <t>do</t>
-        </is>
-      </c>
-      <c r="EA1" s="1" t="inlineStr">
+      <c r="DG1" s="1" t="inlineStr">
         <is>
           <t>enough</t>
         </is>
       </c>
-      <c r="EB1" s="1" t="inlineStr">
+      <c r="DH1" s="1" t="inlineStr">
         <is>
           <t>know</t>
         </is>
       </c>
-      <c r="EC1" s="1" t="inlineStr">
-        <is>
-          <t>more</t>
-        </is>
-      </c>
-      <c r="ED1" s="1" t="inlineStr">
+      <c r="DI1" s="1" t="inlineStr">
         <is>
           <t>teach</t>
         </is>
       </c>
-      <c r="EE1" s="1" t="inlineStr">
-        <is>
-          <t>than</t>
-        </is>
-      </c>
-      <c r="EF1" s="1" t="inlineStr">
-        <is>
-          <t>we</t>
-        </is>
-      </c>
-      <c r="EG1" s="1" t="inlineStr">
+      <c r="DJ1" s="1" t="inlineStr">
         <is>
           <t>speak</t>
         </is>
       </c>
-      <c r="EH1" s="1" t="inlineStr">
-        <is>
-          <t>themselves</t>
-        </is>
-      </c>
-      <c r="EI1" s="1" t="inlineStr">
+      <c r="DK1" s="1" t="inlineStr">
         <is>
           <t>program-development</t>
         </is>
       </c>
-      <c r="EJ1" s="1" t="inlineStr">
+      <c r="DL1" s="1" t="inlineStr">
         <is>
           <t>adventure</t>
         </is>
       </c>
-      <c r="EK1" s="1" t="inlineStr">
+      <c r="DM1" s="1" t="inlineStr">
         <is>
           <t>independent</t>
         </is>
       </c>
-      <c r="EL1" s="1" t="inlineStr">
+      <c r="DN1" s="1" t="inlineStr">
         <is>
           <t>operation</t>
         </is>
       </c>
-      <c r="EM1" s="1" t="inlineStr">
+      <c r="DO1" s="1" t="inlineStr">
         <is>
           <t>opportunity</t>
         </is>
       </c>
-      <c r="EN1" s="1" t="inlineStr">
+      <c r="DP1" s="1" t="inlineStr">
         <is>
           <t>study</t>
         </is>
       </c>
-      <c r="EO1" s="1" t="inlineStr">
+      <c r="DQ1" s="1" t="inlineStr">
         <is>
           <t>georgia</t>
         </is>
       </c>
-      <c r="EP1" s="1" t="inlineStr">
+      <c r="DR1" s="1" t="inlineStr">
         <is>
           <t>governors</t>
         </is>
       </c>
-      <c r="EQ1" s="1" t="inlineStr">
+      <c r="DS1" s="1" t="inlineStr">
         <is>
           <t>organization</t>
         </is>
       </c>
-      <c r="ER1" s="1" t="inlineStr">
+      <c r="DT1" s="1" t="inlineStr">
         <is>
           <t>rationale</t>
         </is>
       </c>
-      <c r="ES1" s="1" t="inlineStr">
+      <c r="DU1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
       </c>
-      <c r="ET1" s="1" t="inlineStr">
+      <c r="DV1" s="1" t="inlineStr">
         <is>
           <t>illinois</t>
         </is>
       </c>
-      <c r="EU1" s="1" t="inlineStr">
+      <c r="DW1" s="1" t="inlineStr">
         <is>
           <t>plan</t>
         </is>
       </c>
-      <c r="EV1" s="1" t="inlineStr">
+      <c r="DX1" s="1" t="inlineStr">
         <is>
           <t>public-schools</t>
         </is>
       </c>
-      <c r="EW1" s="1" t="inlineStr">
+      <c r="DY1" s="1" t="inlineStr">
         <is>
           <t>responsibility</t>
         </is>
       </c>
-      <c r="EX1" s="1" t="inlineStr">
+      <c r="DZ1" s="1" t="inlineStr">
         <is>
           <t>schools</t>
         </is>
       </c>
-      <c r="EY1" s="1" t="inlineStr">
+      <c r="EA1" s="1" t="inlineStr">
         <is>
           <t>begins</t>
         </is>
       </c>
-      <c r="EZ1" s="1" t="inlineStr">
+      <c r="EB1" s="1" t="inlineStr">
         <is>
           <t>search</t>
         </is>
       </c>
-      <c r="FA1" s="1" t="inlineStr">
+      <c r="EC1" s="1" t="inlineStr">
         <is>
           <t>talent</t>
         </is>
       </c>
-      <c r="FB1" s="1" t="inlineStr">
+      <c r="ED1" s="1" t="inlineStr">
         <is>
           <t>within</t>
         </is>
       </c>
-      <c r="FC1" s="1" t="inlineStr">
+      <c r="EE1" s="1" t="inlineStr">
         <is>
           <t>among</t>
         </is>
       </c>
-      <c r="FD1" s="1" t="inlineStr">
+      <c r="EF1" s="1" t="inlineStr">
         <is>
           <t>sibling</t>
         </is>
       </c>
-      <c r="FE1" s="1" t="inlineStr">
+      <c r="EG1" s="1" t="inlineStr">
         <is>
           <t>supportiveness</t>
         </is>
       </c>
-      <c r="FF1" s="1" t="inlineStr">
+      <c r="EH1" s="1" t="inlineStr">
         <is>
           <t>bees</t>
         </is>
       </c>
-      <c r="FG1" s="1" t="inlineStr">
+      <c r="EI1" s="1" t="inlineStr">
         <is>
           <t>bridges</t>
         </is>
       </c>
-      <c r="FH1" s="1" t="inlineStr">
+      <c r="EJ1" s="1" t="inlineStr">
         <is>
           <t>bubbles</t>
         </is>
       </c>
-      <c r="FI1" s="1" t="inlineStr">
+      <c r="EK1" s="1" t="inlineStr">
         <is>
           <t>behavior</t>
         </is>
       </c>
-      <c r="FJ1" s="1" t="inlineStr">
+      <c r="EL1" s="1" t="inlineStr">
         <is>
           <t>ep</t>
         </is>
       </c>
-      <c r="FK1" s="1" t="inlineStr">
+      <c r="EM1" s="1" t="inlineStr">
         <is>
           <t>rewarding</t>
         </is>
       </c>
-      <c r="FL1" s="1" t="inlineStr">
+      <c r="EN1" s="1" t="inlineStr">
         <is>
           <t>torrance</t>
         </is>
       </c>
-      <c r="FM1" s="1" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="FN1" s="1" t="inlineStr">
+      <c r="EO1" s="1" t="inlineStr">
         <is>
           <t>makes</t>
         </is>
       </c>
-      <c r="FO1" s="1" t="inlineStr">
+      <c r="EP1" s="1" t="inlineStr">
         <is>
           <t>theories</t>
         </is>
       </c>
-      <c r="FP1" s="1" t="inlineStr">
+      <c r="EQ1" s="1" t="inlineStr">
         <is>
           <t>culturally-disadvantaged</t>
         </is>
       </c>
-      <c r="FQ1" s="1" t="inlineStr">
+      <c r="ER1" s="1" t="inlineStr">
         <is>
           <t>economically</t>
         </is>
       </c>
-      <c r="FR1" s="1" t="inlineStr">
+      <c r="ES1" s="1" t="inlineStr">
         <is>
           <t>motivating</t>
         </is>
       </c>
-      <c r="FS1" s="1" t="inlineStr">
+      <c r="ET1" s="1" t="inlineStr">
         <is>
           <t>fluency</t>
         </is>
       </c>
-      <c r="FT1" s="1" t="inlineStr">
+      <c r="EU1" s="1" t="inlineStr">
         <is>
           <t>ideational</t>
         </is>
       </c>
-      <c r="FU1" s="1" t="inlineStr">
+      <c r="EV1" s="1" t="inlineStr">
         <is>
           <t>intercultural</t>
         </is>
       </c>
-      <c r="FV1" s="1" t="inlineStr">
+      <c r="EW1" s="1" t="inlineStr">
         <is>
           <t>non-verbal</t>
         </is>
       </c>
-      <c r="FW1" s="1" t="inlineStr">
+      <c r="EX1" s="1" t="inlineStr">
         <is>
           <t>elementary-school</t>
         </is>
       </c>
-      <c r="FX1" s="1" t="inlineStr">
+      <c r="EY1" s="1" t="inlineStr">
         <is>
           <t>social-sciences</t>
         </is>
       </c>
-      <c r="FY1" s="1" t="inlineStr">
+      <c r="EZ1" s="1" t="inlineStr">
         <is>
           <t>broadening</t>
         </is>
       </c>
-      <c r="FZ1" s="1" t="inlineStr">
+      <c r="FA1" s="1" t="inlineStr">
         <is>
           <t>concept</t>
         </is>
       </c>
-      <c r="GA1" s="1" t="inlineStr">
+      <c r="FB1" s="1" t="inlineStr">
         <is>
           <t>approaches</t>
         </is>
       </c>
-      <c r="GB1" s="1" t="inlineStr">
+      <c r="FC1" s="1" t="inlineStr">
         <is>
           <t>combination</t>
         </is>
       </c>
-      <c r="GC1" s="1" t="inlineStr">
+      <c r="FD1" s="1" t="inlineStr">
         <is>
           <t>increasing</t>
         </is>
       </c>
-      <c r="GD1" s="1" t="inlineStr">
+      <c r="FE1" s="1" t="inlineStr">
         <is>
           <t>teacher-training</t>
         </is>
       </c>
-      <c r="GE1" s="1" t="inlineStr">
-        <is>
-          <t>through</t>
-        </is>
-      </c>
-      <c r="GF1" s="1" t="inlineStr">
+      <c r="FF1" s="1" t="inlineStr">
         <is>
           <t>annotated-bibliography</t>
         </is>
       </c>
-      <c r="GG1" s="1" t="inlineStr">
-        <is>
-          <t>e</t>
-        </is>
-      </c>
-      <c r="GH1" s="1" t="inlineStr">
+      <c r="FG1" s="1" t="inlineStr">
         <is>
           <t>paul</t>
         </is>
       </c>
-      <c r="GI1" s="1" t="inlineStr">
+      <c r="FH1" s="1" t="inlineStr">
         <is>
           <t>recent</t>
         </is>
       </c>
-      <c r="GJ1" s="1" t="inlineStr">
+      <c r="FI1" s="1" t="inlineStr">
         <is>
           <t>writings</t>
         </is>
       </c>
-      <c r="GK1" s="1" t="inlineStr">
+      <c r="FJ1" s="1" t="inlineStr">
         <is>
           <t>cw</t>
         </is>
       </c>
-      <c r="GL1" s="1" t="inlineStr">
+      <c r="FK1" s="1" t="inlineStr">
         <is>
           <t>horizons</t>
         </is>
       </c>
-      <c r="GM1" s="1" t="inlineStr">
+      <c r="FL1" s="1" t="inlineStr">
         <is>
           <t>taylor</t>
         </is>
       </c>
-      <c r="GN1" s="1" t="inlineStr">
+      <c r="FM1" s="1" t="inlineStr">
         <is>
           <t>widening</t>
         </is>
       </c>
-      <c r="GO1" s="1" t="inlineStr">
+      <c r="FN1" s="1" t="inlineStr">
         <is>
           <t>help</t>
         </is>
       </c>
-      <c r="GP1" s="1" t="inlineStr">
-        <is>
-          <t>is</t>
-        </is>
-      </c>
-      <c r="GQ1" s="1" t="inlineStr">
+      <c r="FO1" s="1" t="inlineStr">
         <is>
           <t>wanted</t>
         </is>
       </c>
-      <c r="GR1" s="1" t="inlineStr">
+      <c r="FP1" s="1" t="inlineStr">
         <is>
           <t>changes</t>
         </is>
       </c>
-      <c r="GS1" s="1" t="inlineStr">
+      <c r="FQ1" s="1" t="inlineStr">
         <is>
           <t>edward</t>
         </is>
       </c>
-      <c r="GT1" s="1" t="inlineStr">
+      <c r="FR1" s="1" t="inlineStr">
         <is>
           <t>nuclear</t>
         </is>
       </c>
-      <c r="GU1" s="1" t="inlineStr">
+      <c r="FS1" s="1" t="inlineStr">
         <is>
           <t>physicist</t>
         </is>
       </c>
-      <c r="GV1" s="1" t="inlineStr">
+      <c r="FT1" s="1" t="inlineStr">
         <is>
           <t>science</t>
         </is>
       </c>
-      <c r="GW1" s="1" t="inlineStr">
+      <c r="FU1" s="1" t="inlineStr">
         <is>
           <t>teaching</t>
         </is>
       </c>
-      <c r="GX1" s="1" t="inlineStr">
+      <c r="FV1" s="1" t="inlineStr">
         <is>
           <t>teller</t>
         </is>
       </c>
-      <c r="GY1" s="1" t="inlineStr">
+      <c r="FW1" s="1" t="inlineStr">
         <is>
           <t>urges</t>
         </is>
       </c>
-      <c r="GZ1" s="1" t="inlineStr">
+      <c r="FX1" s="1" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
-      <c r="HA1" s="1" t="inlineStr">
+      <c r="FY1" s="1" t="inlineStr">
         <is>
           <t>disappear</t>
         </is>
       </c>
-      <c r="HB1" s="1" t="inlineStr">
+      <c r="FZ1" s="1" t="inlineStr">
         <is>
           <t>educational</t>
         </is>
       </c>
-      <c r="HC1" s="1" t="inlineStr">
+      <c r="GA1" s="1" t="inlineStr">
         <is>
           <t>glass</t>
         </is>
       </c>
-      <c r="HD1" s="1" t="inlineStr">
+      <c r="GB1" s="1" t="inlineStr">
         <is>
           <t>house</t>
         </is>
       </c>
-      <c r="HE1" s="1" t="inlineStr">
-        <is>
-          <t>how</t>
-        </is>
-      </c>
-      <c r="HF1" s="1" t="inlineStr">
+      <c r="GC1" s="1" t="inlineStr">
         <is>
           <t>live</t>
         </is>
       </c>
-      <c r="HG1" s="1" t="inlineStr">
+      <c r="GD1" s="1" t="inlineStr">
         <is>
           <t>may</t>
         </is>
       </c>
-      <c r="HH1" s="1" t="inlineStr">
+      <c r="GE1" s="1" t="inlineStr">
         <is>
           <t>never</t>
         </is>
       </c>
-      <c r="HI1" s="1" t="inlineStr">
+      <c r="GF1" s="1" t="inlineStr">
         <is>
           <t>one</t>
         </is>
       </c>
-      <c r="HJ1" s="1" t="inlineStr">
+      <c r="GG1" s="1" t="inlineStr">
         <is>
           <t>seem</t>
         </is>
       </c>
-      <c r="HK1" s="1" t="inlineStr">
+      <c r="GH1" s="1" t="inlineStr">
         <is>
           <t>stones</t>
         </is>
       </c>
-      <c r="HL1" s="1" t="inlineStr">
+      <c r="GI1" s="1" t="inlineStr">
         <is>
           <t>throw</t>
         </is>
       </c>
-      <c r="HM1" s="1" t="inlineStr">
-        <is>
-          <t>you</t>
-        </is>
-      </c>
-      <c r="HN1" s="1" t="inlineStr">
-        <is>
-          <t>yourself</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -1552,46 +1397,46 @@
         <v>2242</v>
       </c>
       <c r="D2" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="E2" t="n">
-        <v>0.14</v>
+        <v>0.37</v>
       </c>
       <c r="F2" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
       <c r="G2" t="n">
-        <v>0.33</v>
+        <v>0.37</v>
       </c>
       <c r="H2" t="n">
-        <v>0.33</v>
+        <v>0.11</v>
       </c>
       <c r="I2" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="K2" t="n">
         <v>0.24</v>
       </c>
-      <c r="J2" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1</v>
-      </c>
       <c r="L2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="M2" t="n">
-        <v>0.27</v>
+        <v>0.37</v>
       </c>
       <c r="N2" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -2113,99 +1958,6 @@
         <v>0</v>
       </c>
       <c r="GI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM2" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2250,25 +2002,25 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0.58</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -2781,99 +2533,6 @@
         <v>0</v>
       </c>
       <c r="GI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY3" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM3" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2894,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -2927,28 +2586,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>0.73</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0.48</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -3449,99 +3108,6 @@
         <v>0</v>
       </c>
       <c r="GI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY4" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM4" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3559,10 +3125,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -3604,40 +3170,40 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.39</v>
+        <v>0.42</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
         <v>0</v>
@@ -4117,99 +3683,6 @@
         <v>0</v>
       </c>
       <c r="GI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY5" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4227,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4290,10 +3763,10 @@
         <v>0</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>0.77</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -4308,16 +3781,16 @@
         <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -4785,99 +4258,6 @@
         <v>0</v>
       </c>
       <c r="GI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY6" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM6" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4895,7 +4275,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -4904,7 +4284,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -4913,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -4925,7 +4305,7 @@
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -4952,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -4964,10 +4344,10 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.38</v>
+        <v>0.62</v>
       </c>
       <c r="AD7" t="n">
         <v>0</v>
@@ -4988,13 +4368,13 @@
         <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="n">
         <v>0</v>
@@ -5453,99 +4833,6 @@
         <v>0</v>
       </c>
       <c r="GI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5563,7 +4850,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -5572,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -5581,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -5590,10 +4877,10 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -5620,7 +4907,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -5638,61 +4925,61 @@
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AL8" t="n">
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
         <v>0</v>
@@ -6121,99 +5408,6 @@
         <v>0</v>
       </c>
       <c r="GI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY8" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM8" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6261,7 +5455,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -6315,13 +5509,13 @@
         <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AH9" t="n">
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -6330,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -6354,7 +5548,7 @@
         <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -6363,22 +5557,22 @@
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AX9" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AY9" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BC9" t="n">
         <v>0</v>
@@ -6789,99 +5983,6 @@
         <v>0</v>
       </c>
       <c r="GI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY9" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM9" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6983,13 +6084,13 @@
         <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AH10" t="n">
         <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -6998,22 +6099,22 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -7022,7 +6123,7 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -7031,22 +6132,22 @@
         <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AX10" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="AZ10" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
         <v>0</v>
       </c>
       <c r="BB10" t="n">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="BC10" t="n">
         <v>0</v>
@@ -7457,99 +6558,6 @@
         <v>0</v>
       </c>
       <c r="GI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY10" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM10" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7570,7 +6578,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -7681,13 +6689,13 @@
         <v>0</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="AS11" t="n">
-        <v>0</v>
+        <v>0.64</v>
       </c>
       <c r="AT11" t="n">
         <v>0</v>
@@ -7717,13 +6725,13 @@
         <v>0</v>
       </c>
       <c r="BC11" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="BE11" t="n">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="BF11" t="n">
         <v>0</v>
@@ -8125,99 +7133,6 @@
         <v>0</v>
       </c>
       <c r="GI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY11" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8358,13 +7273,13 @@
         <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AU12" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
@@ -8394,16 +7309,16 @@
         <v>0</v>
       </c>
       <c r="BF12" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="BG12" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="BH12" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="BI12" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
@@ -8793,99 +7708,6 @@
         <v>0</v>
       </c>
       <c r="GI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM12" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9035,10 +7857,10 @@
         <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AX13" t="n">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AY13" t="n">
         <v>0</v>
@@ -9074,10 +7896,10 @@
         <v>0</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="BL13" t="n">
         <v>0</v>
@@ -9461,99 +8283,6 @@
         <v>0</v>
       </c>
       <c r="GI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY13" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM13" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9568,7 +8297,7 @@
         <v>2254</v>
       </c>
       <c r="D14" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -9586,35 +8315,35 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="M14" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
         <v>0.27</v>
       </c>
-      <c r="O14" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0.34</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
@@ -9625,7 +8354,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -9709,13 +8438,13 @@
         <v>0</v>
       </c>
       <c r="AY14" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BA14" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BB14" t="n">
         <v>0</v>
@@ -9748,13 +8477,13 @@
         <v>0</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
@@ -10129,99 +8858,6 @@
         <v>0</v>
       </c>
       <c r="GI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM14" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10269,7 +8905,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -10326,7 +8962,7 @@
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
@@ -10344,7 +8980,7 @@
         <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
         <v>0</v>
@@ -10356,10 +8992,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
         <v>0</v>
@@ -10383,28 +9019,28 @@
         <v>0</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="BB15" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BC15" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.22</v>
+        <v>0.36</v>
       </c>
       <c r="BE15" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BF15" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BG15" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BH15" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="BI15" t="n">
         <v>0</v>
@@ -10425,25 +9061,25 @@
         <v>0</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="BV15" t="n">
         <v>0</v>
@@ -10797,99 +9433,6 @@
         <v>0</v>
       </c>
       <c r="GI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY15" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM15" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10907,7 +9450,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -10916,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -10925,7 +9468,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.11</v>
+        <v>0.26</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -10934,7 +9477,7 @@
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -10994,10 +9537,10 @@
         <v>0</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>0.22</v>
       </c>
       <c r="AJ16" t="n">
         <v>0</v>
@@ -11027,10 +9570,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -11051,7 +9594,7 @@
         <v>0</v>
       </c>
       <c r="BA16" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="BB16" t="n">
         <v>0</v>
@@ -11075,19 +9618,19 @@
         <v>0</v>
       </c>
       <c r="BI16" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BJ16" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BK16" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BL16" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BM16" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BN16" t="n">
         <v>0</v>
@@ -11114,22 +9657,22 @@
         <v>0</v>
       </c>
       <c r="BV16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BW16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BX16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BY16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="BZ16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="CA16" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="CB16" t="n">
         <v>0</v>
@@ -11465,99 +10008,6 @@
         <v>0</v>
       </c>
       <c r="GI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY16" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11584,7 +10034,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -11593,7 +10043,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -11632,7 +10082,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -11692,7 +10142,7 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
@@ -11758,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="BN17" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="BO17" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="BP17" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="BQ17" t="n">
         <v>0</v>
@@ -11800,16 +10250,16 @@
         <v>0</v>
       </c>
       <c r="CB17" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="CC17" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="CD17" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="CE17" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="CF17" t="n">
         <v>0</v>
@@ -12133,99 +10583,6 @@
         <v>0</v>
       </c>
       <c r="GI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12300,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -12435,16 +10792,16 @@
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="BR18" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="BS18" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="BT18" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -12480,16 +10837,16 @@
         <v>0</v>
       </c>
       <c r="CF18" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="CG18" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="CH18" t="n">
-        <v>0.53</v>
+        <v>0</v>
       </c>
       <c r="CI18" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="CJ18" t="n">
         <v>0</v>
@@ -12801,99 +11158,6 @@
         <v>0</v>
       </c>
       <c r="GI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY18" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -12953,7 +11217,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -12965,7 +11229,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -13070,7 +11334,7 @@
         <v>0</v>
       </c>
       <c r="BF19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="BG19" t="n">
         <v>0</v>
@@ -13112,10 +11376,10 @@
         <v>0</v>
       </c>
       <c r="BT19" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="BU19" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="BV19" t="n">
         <v>0</v>
@@ -13157,13 +11421,13 @@
         <v>0</v>
       </c>
       <c r="CI19" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CJ19" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CK19" t="n">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="CL19" t="n">
         <v>0</v>
@@ -13469,99 +11733,6 @@
         <v>0</v>
       </c>
       <c r="GI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY19" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM19" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -13615,7 +11786,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -13627,7 +11798,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -13636,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -13723,7 +11894,7 @@
         <v>0</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="BB20" t="n">
         <v>0</v>
@@ -13786,10 +11957,10 @@
         <v>0</v>
       </c>
       <c r="BV20" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BW20" t="n">
-        <v>0</v>
+        <v>0.72</v>
       </c>
       <c r="BX20" t="n">
         <v>0</v>
@@ -13834,16 +12005,16 @@
         <v>0</v>
       </c>
       <c r="CL20" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="CM20" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="CN20" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="CO20" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CP20" t="n">
         <v>0</v>
@@ -14137,99 +12308,6 @@
         <v>0</v>
       </c>
       <c r="GI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY20" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM20" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14277,7 +12355,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -14304,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -14319,7 +12397,7 @@
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -14460,19 +12538,19 @@
         <v>0</v>
       </c>
       <c r="BX21" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="BY21" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="BZ21" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CA21" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CB21" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="CC21" t="n">
         <v>0</v>
@@ -14514,19 +12592,19 @@
         <v>0</v>
       </c>
       <c r="CP21" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CQ21" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="CR21" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CS21" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CT21" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="CU21" t="n">
         <v>0</v>
@@ -14805,99 +12883,6 @@
         <v>0</v>
       </c>
       <c r="GI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY21" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM21" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -14918,7 +12903,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -15122,7 +13107,7 @@
         <v>0</v>
       </c>
       <c r="BV22" t="n">
-        <v>0</v>
+        <v>0.54</v>
       </c>
       <c r="BW22" t="n">
         <v>0</v>
@@ -15143,7 +13128,7 @@
         <v>0</v>
       </c>
       <c r="CC22" t="n">
-        <v>0</v>
+        <v>0.84</v>
       </c>
       <c r="CD22" t="n">
         <v>0</v>
@@ -15173,7 +13158,7 @@
         <v>0</v>
       </c>
       <c r="CM22" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="CN22" t="n">
         <v>0</v>
@@ -15197,7 +13182,7 @@
         <v>0</v>
       </c>
       <c r="CU22" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="CV22" t="n">
         <v>0</v>
@@ -15473,99 +13458,6 @@
         <v>0</v>
       </c>
       <c r="GI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -15586,7 +13478,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -15613,7 +13505,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -15640,7 +13532,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -15664,7 +13556,7 @@
         <v>0</v>
       </c>
       <c r="AF23" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="AG23" t="n">
         <v>0</v>
@@ -15694,13 +13586,13 @@
         <v>0</v>
       </c>
       <c r="AP23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AQ23" t="n">
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
@@ -15727,7 +13619,7 @@
         <v>0</v>
       </c>
       <c r="BA23" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="BB23" t="n">
         <v>0</v>
@@ -15814,31 +13706,31 @@
         <v>0</v>
       </c>
       <c r="CD23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CE23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CF23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CG23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CH23" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="CI23" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="CJ23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CK23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CL23" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="CM23" t="n">
         <v>0</v>
@@ -15868,31 +13760,31 @@
         <v>0</v>
       </c>
       <c r="CV23" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CW23" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CX23" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CY23" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="DA23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="DB23" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="DC23" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="DD23" t="n">
-        <v>0.31</v>
+        <v>0</v>
       </c>
       <c r="DE23" t="n">
         <v>0</v>
@@ -16141,99 +14033,6 @@
         <v>0</v>
       </c>
       <c r="GI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16254,7 +14053,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -16323,7 +14122,7 @@
         <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -16350,7 +14149,7 @@
         <v>0</v>
       </c>
       <c r="AL24" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="AM24" t="n">
         <v>0</v>
@@ -16509,13 +14308,13 @@
         <v>0</v>
       </c>
       <c r="CM24" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="CN24" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="CO24" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="CP24" t="n">
         <v>0</v>
@@ -16563,13 +14362,13 @@
         <v>0</v>
       </c>
       <c r="DE24" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="DG24" t="n">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="DH24" t="n">
         <v>0</v>
@@ -16809,99 +14608,6 @@
         <v>0</v>
       </c>
       <c r="GI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY24" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM24" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -16919,10 +14625,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -16949,13 +14655,13 @@
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -16967,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -16976,7 +14682,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -17162,7 +14868,7 @@
         <v>0</v>
       </c>
       <c r="CH25" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CI25" t="n">
         <v>0</v>
@@ -17186,22 +14892,22 @@
         <v>0</v>
       </c>
       <c r="CP25" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CQ25" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="CR25" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="CS25" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="CT25" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="CU25" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="CV25" t="n">
         <v>0</v>
@@ -17216,7 +14922,7 @@
         <v>0</v>
       </c>
       <c r="CZ25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="DA25" t="n">
         <v>0</v>
@@ -17240,25 +14946,25 @@
         <v>0</v>
       </c>
       <c r="DH25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="DI25" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DJ25" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DK25" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="DL25" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DM25" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="DN25" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="DO25" t="n">
         <v>0</v>
@@ -17477,99 +15183,6 @@
         <v>0</v>
       </c>
       <c r="GI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY25" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM25" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -17596,7 +15209,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -17605,7 +15218,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -17617,7 +15230,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -17644,7 +15257,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -17719,10 +15332,10 @@
         <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AX26" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AY26" t="n">
         <v>0</v>
@@ -17758,10 +15371,10 @@
         <v>0</v>
       </c>
       <c r="BJ26" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BK26" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BL26" t="n">
         <v>0</v>
@@ -17872,16 +15485,16 @@
         <v>0</v>
       </c>
       <c r="CV26" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CW26" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CX26" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CY26" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CZ26" t="n">
         <v>0</v>
@@ -17929,16 +15542,16 @@
         <v>0</v>
       </c>
       <c r="DO26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DP26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DQ26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DR26" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="DS26" t="n">
         <v>0</v>
@@ -18145,99 +15758,6 @@
         <v>0</v>
       </c>
       <c r="GI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY26" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM26" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18264,7 +15784,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -18273,7 +15793,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -18552,25 +16072,25 @@
         <v>0</v>
       </c>
       <c r="CZ27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DA27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DB27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DC27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DD27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DE27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DF27" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DG27" t="n">
         <v>0</v>
@@ -18609,25 +16129,25 @@
         <v>0</v>
       </c>
       <c r="DS27" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="DT27" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="DU27" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="DV27" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="DW27" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="DX27" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="DY27" t="n">
-        <v>0.38</v>
+        <v>0</v>
       </c>
       <c r="DZ27" t="n">
         <v>0</v>
@@ -18813,99 +16333,6 @@
         <v>0</v>
       </c>
       <c r="GI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY27" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM27" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -18926,7 +16353,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -18935,7 +16362,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -19241,13 +16668,13 @@
         <v>0</v>
       </c>
       <c r="DG28" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="DH28" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="DI28" t="n">
-        <v>0</v>
+        <v>0.53</v>
       </c>
       <c r="DJ28" t="n">
         <v>0</v>
@@ -19259,7 +16686,7 @@
         <v>0</v>
       </c>
       <c r="DM28" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="DN28" t="n">
         <v>0</v>
@@ -19298,25 +16725,25 @@
         <v>0</v>
       </c>
       <c r="DZ28" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EA28" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EB28" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EC28" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="ED28" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EE28" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="EF28" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="EG28" t="n">
         <v>0</v>
@@ -19481,99 +16908,6 @@
         <v>0</v>
       </c>
       <c r="GI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY28" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM28" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -19600,7 +16934,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -19609,7 +16943,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -19681,7 +17015,7 @@
         <v>0</v>
       </c>
       <c r="AI29" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="AJ29" t="n">
         <v>0</v>
@@ -19714,7 +17048,7 @@
         <v>0</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="AU29" t="n">
         <v>0</v>
@@ -19735,7 +17069,7 @@
         <v>0</v>
       </c>
       <c r="BA29" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="BB29" t="n">
         <v>0</v>
@@ -19918,7 +17252,7 @@
         <v>0</v>
       </c>
       <c r="DJ29" t="n">
-        <v>0</v>
+        <v>0.85</v>
       </c>
       <c r="DK29" t="n">
         <v>0</v>
@@ -19987,10 +17321,10 @@
         <v>0</v>
       </c>
       <c r="EG29" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="EH29" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="EI29" t="n">
         <v>0</v>
@@ -20149,99 +17483,6 @@
         <v>0</v>
       </c>
       <c r="GI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY29" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM29" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20376,7 +17617,7 @@
         <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>0.48</v>
       </c>
       <c r="AS30" t="n">
         <v>0</v>
@@ -20403,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="BA30" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="BB30" t="n">
         <v>0</v>
@@ -20412,7 +17653,7 @@
         <v>0</v>
       </c>
       <c r="BD30" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="BE30" t="n">
         <v>0</v>
@@ -20535,7 +17776,7 @@
         <v>0</v>
       </c>
       <c r="CS30" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="CT30" t="n">
         <v>0</v>
@@ -20589,7 +17830,7 @@
         <v>0</v>
       </c>
       <c r="DK30" t="n">
-        <v>0.59</v>
+        <v>0.62</v>
       </c>
       <c r="DL30" t="n">
         <v>0</v>
@@ -20661,7 +17902,7 @@
         <v>0</v>
       </c>
       <c r="EI30" t="n">
-        <v>0.59</v>
+        <v>0</v>
       </c>
       <c r="EJ30" t="n">
         <v>0</v>
@@ -20817,99 +18058,6 @@
         <v>0</v>
       </c>
       <c r="GI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY30" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -20927,7 +18075,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -21032,7 +18180,7 @@
         <v>0</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AO31" t="n">
         <v>0</v>
@@ -21065,7 +18213,7 @@
         <v>0</v>
       </c>
       <c r="AY31" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="AZ31" t="n">
         <v>0</v>
@@ -21260,19 +18408,19 @@
         <v>0</v>
       </c>
       <c r="DL31" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DM31" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DN31" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="DO31" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="DP31" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="DQ31" t="n">
         <v>0</v>
@@ -21332,19 +18480,19 @@
         <v>0</v>
       </c>
       <c r="EJ31" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EK31" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EL31" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="EM31" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EN31" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="EO31" t="n">
         <v>0</v>
@@ -21485,99 +18633,6 @@
         <v>0</v>
       </c>
       <c r="GI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY31" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM31" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -21625,7 +18680,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -21652,7 +18707,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -21679,10 +18734,10 @@
         <v>0</v>
       </c>
       <c r="AG32" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AI32" t="n">
         <v>0</v>
@@ -21709,13 +18764,13 @@
         <v>0</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR32" t="n">
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AT32" t="n">
         <v>0</v>
@@ -21934,7 +18989,7 @@
         <v>0</v>
       </c>
       <c r="DN32" t="n">
-        <v>0</v>
+        <v>0.32</v>
       </c>
       <c r="DO32" t="n">
         <v>0</v>
@@ -21943,19 +18998,19 @@
         <v>0</v>
       </c>
       <c r="DQ32" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DR32" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DS32" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DT32" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DU32" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="DV32" t="n">
         <v>0</v>
@@ -22006,7 +19061,7 @@
         <v>0</v>
       </c>
       <c r="EL32" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="EM32" t="n">
         <v>0</v>
@@ -22015,19 +19070,19 @@
         <v>0</v>
       </c>
       <c r="EO32" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="EP32" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="EQ32" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="ER32" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="ES32" t="n">
-        <v>0.39</v>
+        <v>0</v>
       </c>
       <c r="ET32" t="n">
         <v>0</v>
@@ -22153,99 +19208,6 @@
         <v>0</v>
       </c>
       <c r="GI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY32" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM32" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22293,7 +19255,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -22320,7 +19282,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -22380,7 +19342,7 @@
         <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="AS33" t="n">
         <v>0</v>
@@ -22407,7 +19369,7 @@
         <v>0</v>
       </c>
       <c r="BA33" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="BB33" t="n">
         <v>0</v>
@@ -22416,7 +19378,7 @@
         <v>0</v>
       </c>
       <c r="BD33" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="BE33" t="n">
         <v>0</v>
@@ -22593,7 +19555,7 @@
         <v>0</v>
       </c>
       <c r="DK33" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="DL33" t="n">
         <v>0</v>
@@ -22626,10 +19588,10 @@
         <v>0</v>
       </c>
       <c r="DV33" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="DW33" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="DX33" t="n">
         <v>0</v>
@@ -22665,7 +19627,7 @@
         <v>0</v>
       </c>
       <c r="EI33" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="EJ33" t="n">
         <v>0</v>
@@ -22698,10 +19660,10 @@
         <v>0</v>
       </c>
       <c r="ET33" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="EU33" t="n">
-        <v>0.55</v>
+        <v>0</v>
       </c>
       <c r="EV33" t="n">
         <v>0</v>
@@ -22821,99 +19783,6 @@
         <v>0</v>
       </c>
       <c r="GI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY33" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM33" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -22934,13 +19803,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -22949,7 +19818,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -22988,7 +19857,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -23300,7 +20169,7 @@
         <v>0</v>
       </c>
       <c r="DX34" t="n">
-        <v>0</v>
+        <v>0.96</v>
       </c>
       <c r="DY34" t="n">
         <v>0</v>
@@ -23372,7 +20241,7 @@
         <v>0</v>
       </c>
       <c r="EV34" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="EW34" t="n">
         <v>0</v>
@@ -23489,99 +20358,6 @@
         <v>0</v>
       </c>
       <c r="GI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY34" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM34" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -23608,7 +20384,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -23617,7 +20393,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -23629,7 +20405,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -23656,7 +20432,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -23689,7 +20465,7 @@
         <v>0</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>0.31</v>
       </c>
       <c r="AJ35" t="n">
         <v>0</v>
@@ -23722,7 +20498,7 @@
         <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -23740,10 +20516,10 @@
         <v>0</v>
       </c>
       <c r="AZ35" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="BA35" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="BB35" t="n">
         <v>0</v>
@@ -23779,7 +20555,7 @@
         <v>0</v>
       </c>
       <c r="BM35" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="BN35" t="n">
         <v>0</v>
@@ -23971,10 +20747,10 @@
         <v>0</v>
       </c>
       <c r="DY35" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="DZ35" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="EA35" t="n">
         <v>0</v>
@@ -24043,10 +20819,10 @@
         <v>0</v>
       </c>
       <c r="EW35" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="EX35" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="EY35" t="n">
         <v>0</v>
@@ -24157,99 +20933,6 @@
         <v>0</v>
       </c>
       <c r="GI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY35" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM35" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24324,7 +21007,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -24411,7 +21094,7 @@
         <v>0</v>
       </c>
       <c r="BA36" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="BB36" t="n">
         <v>0</v>
@@ -24645,16 +21328,16 @@
         <v>0</v>
       </c>
       <c r="EA36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EB36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EC36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="ED36" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="EE36" t="n">
         <v>0</v>
@@ -24717,16 +21400,16 @@
         <v>0</v>
       </c>
       <c r="EY36" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="EZ36" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="FA36" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="FB36" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="FC36" t="n">
         <v>0</v>
@@ -24825,99 +21508,6 @@
         <v>0</v>
       </c>
       <c r="GI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY36" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM36" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -24944,7 +21534,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -24953,7 +21543,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -24992,7 +21582,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25325,13 +21915,13 @@
         <v>0</v>
       </c>
       <c r="EE37" t="n">
-        <v>0</v>
+        <v>0.49</v>
       </c>
       <c r="EF37" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EG37" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="EH37" t="n">
         <v>0</v>
@@ -25397,13 +21987,13 @@
         <v>0</v>
       </c>
       <c r="FC37" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="FD37" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="FE37" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="FF37" t="n">
         <v>0</v>
@@ -25493,99 +22083,6 @@
         <v>0</v>
       </c>
       <c r="GI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY37" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM37" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -25606,7 +22103,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -26002,13 +22499,13 @@
         <v>0</v>
       </c>
       <c r="EH38" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EI38" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EJ38" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EK38" t="n">
         <v>0</v>
@@ -26074,13 +22571,13 @@
         <v>0</v>
       </c>
       <c r="FF38" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="FG38" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="FH38" t="n">
-        <v>0.5600000000000001</v>
+        <v>0</v>
       </c>
       <c r="FI38" t="n">
         <v>0</v>
@@ -26161,99 +22658,6 @@
         <v>0</v>
       </c>
       <c r="GI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY38" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM38" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26313,7 +22717,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>0.27</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -26325,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -26403,10 +22807,10 @@
         <v>0</v>
       </c>
       <c r="AW39" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AX39" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="AY39" t="n">
         <v>0</v>
@@ -26442,10 +22846,10 @@
         <v>0</v>
       </c>
       <c r="BJ39" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BK39" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="BL39" t="n">
         <v>0</v>
@@ -26679,16 +23083,16 @@
         <v>0</v>
       </c>
       <c r="EK39" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EL39" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EM39" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="EN39" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="EO39" t="n">
         <v>0</v>
@@ -26751,16 +23155,16 @@
         <v>0</v>
       </c>
       <c r="FI39" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="FJ39" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="FK39" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="FL39" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="FM39" t="n">
         <v>0</v>
@@ -26829,99 +23233,6 @@
         <v>0</v>
       </c>
       <c r="GI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY39" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM39" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -26939,7 +23250,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -26981,7 +23292,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>0.34</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -26993,7 +23304,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -27002,7 +23313,7 @@
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>0.47</v>
       </c>
       <c r="AA40" t="n">
         <v>0</v>
@@ -27020,7 +23331,7 @@
         <v>0</v>
       </c>
       <c r="AF40" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -27203,7 +23514,7 @@
         <v>0</v>
       </c>
       <c r="CO40" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="CP40" t="n">
         <v>0</v>
@@ -27359,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="EO40" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EP40" t="n">
-        <v>0</v>
+        <v>0.58</v>
       </c>
       <c r="EQ40" t="n">
         <v>0</v>
@@ -27431,13 +23742,13 @@
         <v>0</v>
       </c>
       <c r="FM40" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="FN40" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="FO40" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="FP40" t="n">
         <v>0</v>
@@ -27497,99 +23808,6 @@
         <v>0</v>
       </c>
       <c r="GI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY40" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM40" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -27610,22 +23828,22 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.17</v>
+        <v>0.33</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="I41" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -27664,7 +23882,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -27811,7 +24029,7 @@
         <v>0</v>
       </c>
       <c r="BU41" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="BV41" t="n">
         <v>0</v>
@@ -27856,7 +24074,7 @@
         <v>0</v>
       </c>
       <c r="CJ41" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CK41" t="n">
         <v>0</v>
@@ -27997,7 +24215,7 @@
         <v>0</v>
       </c>
       <c r="EE41" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="EF41" t="n">
         <v>0</v>
@@ -28033,13 +24251,13 @@
         <v>0</v>
       </c>
       <c r="EQ41" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="ER41" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="ES41" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="ET41" t="n">
         <v>0</v>
@@ -28069,7 +24287,7 @@
         <v>0</v>
       </c>
       <c r="FC41" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="FD41" t="n">
         <v>0</v>
@@ -28108,13 +24326,13 @@
         <v>0</v>
       </c>
       <c r="FP41" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="FQ41" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="FR41" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="FS41" t="n">
         <v>0</v>
@@ -28165,99 +24383,6 @@
         <v>0</v>
       </c>
       <c r="GI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY41" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM41" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28305,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -28380,7 +24505,7 @@
         <v>0</v>
       </c>
       <c r="AN42" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="AO42" t="n">
         <v>0</v>
@@ -28620,7 +24745,7 @@
         <v>0</v>
       </c>
       <c r="DP42" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="DQ42" t="n">
         <v>0</v>
@@ -28692,7 +24817,7 @@
         <v>0</v>
       </c>
       <c r="EN42" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="EO42" t="n">
         <v>0</v>
@@ -28710,16 +24835,16 @@
         <v>0</v>
       </c>
       <c r="ET42" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EU42" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EV42" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EW42" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="EX42" t="n">
         <v>0</v>
@@ -28785,16 +24910,16 @@
         <v>0</v>
       </c>
       <c r="FS42" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="FT42" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="FU42" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="FV42" t="n">
-        <v>0.44</v>
+        <v>0</v>
       </c>
       <c r="FW42" t="n">
         <v>0</v>
@@ -28833,99 +24958,6 @@
         <v>0</v>
       </c>
       <c r="GI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY42" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM42" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28952,7 +24984,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -28961,7 +24993,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -29000,7 +25032,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -29087,7 +25119,7 @@
         <v>0</v>
       </c>
       <c r="BA43" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="BB43" t="n">
         <v>0</v>
@@ -29147,7 +25179,7 @@
         <v>0</v>
       </c>
       <c r="BU43" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="BV43" t="n">
         <v>0</v>
@@ -29192,7 +25224,7 @@
         <v>0</v>
       </c>
       <c r="CJ43" t="n">
-        <v>0.43</v>
+        <v>0</v>
       </c>
       <c r="CK43" t="n">
         <v>0</v>
@@ -29390,10 +25422,10 @@
         <v>0</v>
       </c>
       <c r="EX43" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="EY43" t="n">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="EZ43" t="n">
         <v>0</v>
@@ -29465,10 +25497,10 @@
         <v>0</v>
       </c>
       <c r="FW43" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="FX43" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="FY43" t="n">
         <v>0</v>
@@ -29501,99 +25533,6 @@
         <v>0</v>
       </c>
       <c r="GI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY43" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM43" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -29641,7 +25580,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -29668,7 +25607,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -29827,7 +25766,7 @@
         <v>0</v>
       </c>
       <c r="BY44" t="n">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="BZ44" t="n">
         <v>0</v>
@@ -29881,7 +25820,7 @@
         <v>0</v>
       </c>
       <c r="CQ44" t="n">
-        <v>0.49</v>
+        <v>0</v>
       </c>
       <c r="CR44" t="n">
         <v>0</v>
@@ -30064,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="EZ44" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="FA44" t="n">
-        <v>0</v>
+        <v>0.61</v>
       </c>
       <c r="FB44" t="n">
         <v>0</v>
@@ -30139,10 +26078,10 @@
         <v>0</v>
       </c>
       <c r="FY44" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="FZ44" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="GA44" t="n">
         <v>0</v>
@@ -30169,99 +26108,6 @@
         <v>0</v>
       </c>
       <c r="GI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY44" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM44" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30279,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -30309,7 +26155,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -30327,7 +26173,7 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>0.36</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -30342,7 +26188,7 @@
         <v>0</v>
       </c>
       <c r="Z45" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AA45" t="n">
         <v>0</v>
@@ -30486,7 +26332,7 @@
         <v>0</v>
       </c>
       <c r="BV45" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="BW45" t="n">
         <v>0</v>
@@ -30537,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="CM45" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="CN45" t="n">
         <v>0</v>
@@ -30738,16 +26584,16 @@
         <v>0</v>
       </c>
       <c r="FB45" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FC45" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FD45" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FE45" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FF45" t="n">
         <v>0</v>
@@ -30813,19 +26659,19 @@
         <v>0</v>
       </c>
       <c r="GA45" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GB45" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GC45" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GD45" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GE45" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GF45" t="n">
         <v>0</v>
@@ -30837,99 +26683,6 @@
         <v>0</v>
       </c>
       <c r="GI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY45" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM45" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -30977,7 +26730,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -31004,7 +26757,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -31052,7 +26805,7 @@
         <v>0</v>
       </c>
       <c r="AN46" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AO46" t="n">
         <v>0</v>
@@ -31364,7 +27117,7 @@
         <v>0</v>
       </c>
       <c r="EN46" t="n">
-        <v>0</v>
+        <v>0.38</v>
       </c>
       <c r="EO46" t="n">
         <v>0</v>
@@ -31418,16 +27171,16 @@
         <v>0</v>
       </c>
       <c r="FF46" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="FG46" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="FH46" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="FI46" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="FJ46" t="n">
         <v>0</v>
@@ -31436,7 +27189,7 @@
         <v>0</v>
       </c>
       <c r="FL46" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="FM46" t="n">
         <v>0</v>
@@ -31496,108 +27249,15 @@
         <v>0</v>
       </c>
       <c r="GF46" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GG46" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GH46" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="GI46" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="GJ46" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="GK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY46" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM46" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -31732,7 +27392,7 @@
         <v>0</v>
       </c>
       <c r="AR47" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="AS47" t="n">
         <v>0</v>
@@ -31747,10 +27407,10 @@
         <v>0</v>
       </c>
       <c r="AW47" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AX47" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="AY47" t="n">
         <v>0</v>
@@ -31786,10 +27446,10 @@
         <v>0</v>
       </c>
       <c r="BJ47" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BK47" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="BL47" t="n">
         <v>0</v>
@@ -31822,7 +27482,7 @@
         <v>0</v>
       </c>
       <c r="BV47" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="BW47" t="n">
         <v>0</v>
@@ -31873,7 +27533,7 @@
         <v>0</v>
       </c>
       <c r="CM47" t="n">
-        <v>0.27</v>
+        <v>0</v>
       </c>
       <c r="CN47" t="n">
         <v>0</v>
@@ -32098,16 +27758,16 @@
         <v>0</v>
       </c>
       <c r="FJ47" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FK47" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FL47" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FM47" t="n">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="FN47" t="n">
         <v>0</v>
@@ -32173,99 +27833,6 @@
         <v>0</v>
       </c>
       <c r="GI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK47" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GL47" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GM47" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GN47" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="GO47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY47" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM47" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -32292,7 +27859,7 @@
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -32301,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="L48" t="n">
         <v>0</v>
@@ -32313,7 +27880,7 @@
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -32340,7 +27907,7 @@
         <v>0</v>
       </c>
       <c r="X48" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>0</v>
@@ -32484,7 +28051,7 @@
         <v>0</v>
       </c>
       <c r="BT48" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="BU48" t="n">
         <v>0</v>
@@ -32529,13 +28096,13 @@
         <v>0</v>
       </c>
       <c r="CI48" t="n">
-        <v>0.32</v>
+        <v>0</v>
       </c>
       <c r="CJ48" t="n">
         <v>0</v>
       </c>
       <c r="CK48" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="CL48" t="n">
         <v>0</v>
@@ -32550,7 +28117,7 @@
         <v>0</v>
       </c>
       <c r="CP48" t="n">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="CQ48" t="n">
         <v>0</v>
@@ -32604,7 +28171,7 @@
         <v>0</v>
       </c>
       <c r="DH48" t="n">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="DI48" t="n">
         <v>0</v>
@@ -32778,10 +28345,10 @@
         <v>0</v>
       </c>
       <c r="FN48" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="FO48" t="n">
-        <v>0</v>
+        <v>0.55</v>
       </c>
       <c r="FP48" t="n">
         <v>0</v>
@@ -32841,99 +28408,6 @@
         <v>0</v>
       </c>
       <c r="GI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO48" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GP48" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GQ48" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="GR48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY48" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM48" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33452,28 +28926,28 @@
         <v>0</v>
       </c>
       <c r="FP49" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FQ49" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FR49" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FS49" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FT49" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FU49" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FV49" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FW49" t="n">
-        <v>0</v>
+        <v>0.35</v>
       </c>
       <c r="FX49" t="n">
         <v>0</v>
@@ -33509,99 +28983,6 @@
         <v>0</v>
       </c>
       <c r="GI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR49" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GS49" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GT49" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GU49" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GV49" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GW49" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GX49" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GY49" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="GZ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HA49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HB49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HC49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HF49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HG49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HH49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HI49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HJ49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HK49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HL49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HM49" t="n">
-        <v>0</v>
-      </c>
-      <c r="HN49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -33628,7 +29009,7 @@
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -33637,7 +29018,7 @@
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -33865,7 +29246,7 @@
         <v>0</v>
       </c>
       <c r="CI50" t="n">
-        <v>0</v>
+        <v>0.23</v>
       </c>
       <c r="CJ50" t="n">
         <v>0</v>
@@ -33919,7 +29300,7 @@
         <v>0</v>
       </c>
       <c r="DA50" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="DB50" t="n">
         <v>0</v>
@@ -33955,7 +29336,7 @@
         <v>0</v>
       </c>
       <c r="DM50" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="DN50" t="n">
         <v>0</v>
@@ -34144,133 +29525,40 @@
         <v>0</v>
       </c>
       <c r="FX50" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="FY50" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="FZ50" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="GA50" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="GB50" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="GC50" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="GD50" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="GE50" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="GF50" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="GG50" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="GH50" t="n">
-        <v>0</v>
+        <v>0.28</v>
       </c>
       <c r="GI50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GJ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GK50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GL50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GM50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GN50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GO50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GP50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GQ50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GR50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GS50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GT50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GU50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GV50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GW50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GX50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GY50" t="n">
-        <v>0</v>
-      </c>
-      <c r="GZ50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HA50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HB50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HC50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HD50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HE50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HF50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HG50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HH50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HI50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HJ50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HK50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HL50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HM50" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="HN50" t="n">
-        <v>0.25</v>
+        <v>0.28</v>
       </c>
     </row>
   </sheetData>
